--- a/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="SK-0.3-700" sheetId="1" r:id="rId1"/>
-    <sheet name="SK-0.5-600" sheetId="2" r:id="rId4"/>
-    <sheet name="SK-0.5-700" sheetId="3" r:id="rId5"/>
-    <sheet name="SK-0.5-800" sheetId="4" r:id="rId6"/>
-    <sheet name="SK-0.5-900" sheetId="5" r:id="rId7"/>
-    <sheet name="SK-1-700" sheetId="6" r:id="rId8"/>
-    <sheet name="SK-2-700" sheetId="7" r:id="rId9"/>
-    <sheet name="SK-3-700" sheetId="8" r:id="rId10"/>
-    <sheet name="SK-4-700" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1 SK-0.3-700  0-1-100-10" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 SK-0.5-600  0-1-100-10" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 SK-0.5-700  0-1-100-10" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 SK-0.5-800  0-1-100-10" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 SK-0.5-900  0-1-100-10" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 SK-1-700  0-1-100-1000" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 SK-2-700  0-1-100-1000" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1 SK-3-700  0-1-100-1000" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1 SK-4-700  0-1-100-1000" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-0.3-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-0.3-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-0.3-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-0.3-700  0-1-100-10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-0.3-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-0.3-700  0-1-100-10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -206,6 +206,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -275,6 +277,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -439,7 +443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-0.5-600</a:t>
+              <a:t>Izoterma adsorpcji probki SK-0.5-600 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -498,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-0.5-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-0.5-600  0-1-100-10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-0.5-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-0.5-600  0-1-100-10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -516,6 +520,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -585,6 +591,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -749,7 +757,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-0.5-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-0.5-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-0.5-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-0.5-700  0-1-100-10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-0.5-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-0.5-700  0-1-100-10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -826,6 +834,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -895,6 +905,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1059,7 +1071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-0.5-800</a:t>
+              <a:t>Izoterma adsorpcji probki SK-0.5-800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-0.5-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-0.5-800  0-1-100-10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-0.5-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-0.5-800  0-1-100-10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1136,6 +1148,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1205,6 +1219,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1369,7 +1385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-0.5-900</a:t>
+              <a:t>Izoterma adsorpcji probki SK-0.5-900 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1428,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-0.5-900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-0.5-900  0-1-100-10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-0.5-900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-0.5-900  0-1-100-10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1446,6 +1462,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1515,6 +1533,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1679,7 +1699,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-1-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-1-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1738,12 +1758,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-1-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-1-700  0-1-100-1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-1-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-1-700  0-1-100-1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1756,6 +1776,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1825,6 +1847,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1989,7 +2013,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-2-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-2-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2048,12 +2072,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-2-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-2-700  0-1-100-1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-2-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-2-700  0-1-100-1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2066,6 +2090,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2135,6 +2161,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2299,7 +2327,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-3-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-3-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2358,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-3-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-3-700  0-1-100-1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-3-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-3-700  0-1-100-1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2376,6 +2404,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2445,6 +2475,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2609,7 +2641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SK-4-700</a:t>
+              <a:t>Izoterma adsorpcji probki SK-4-700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2668,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SK-4-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 SK-4-700  0-1-100-1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SK-4-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 SK-4-700  0-1-100-1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2686,6 +2718,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2755,6 +2789,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
@@ -8583,7 +8583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8604,229 +8604,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0194</v>
+        <v>0.0132</v>
       </c>
       <c r="B3" s="0">
-        <v>180.8793</v>
+        <v>179.668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0577</v>
+        <v>0.0534</v>
       </c>
       <c r="B4" s="0">
-        <v>188.4973</v>
+        <v>188.3817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0925</v>
+        <v>0.0877</v>
       </c>
       <c r="B5" s="0">
-        <v>190.675</v>
+        <v>190.8714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1319</v>
+        <v>0.1221</v>
       </c>
       <c r="B6" s="0">
-        <v>191.9673</v>
+        <v>191.4938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.167</v>
+        <v>0.1557</v>
       </c>
       <c r="B7" s="0">
-        <v>192.7536</v>
+        <v>192.7386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2034</v>
+        <v>0.1915</v>
       </c>
       <c r="B8" s="0">
-        <v>193.2374</v>
+        <v>193.361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2395</v>
+        <v>0.2266</v>
       </c>
       <c r="B9" s="0">
-        <v>194.1947</v>
+        <v>194.6058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.276</v>
+        <v>0.261</v>
       </c>
       <c r="B10" s="0">
-        <v>194.3419</v>
+        <v>194.6058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3111</v>
+        <v>0.2946</v>
       </c>
       <c r="B11" s="0">
-        <v>195.2697</v>
+        <v>195.2282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3471</v>
+        <v>0.3099</v>
       </c>
       <c r="B12" s="0">
-        <v>195.1519</v>
+        <v>195.8506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3839</v>
+        <v>0.3304</v>
       </c>
       <c r="B13" s="0">
-        <v>195.4885</v>
+        <v>194.6058</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4193</v>
+        <v>0.3465</v>
       </c>
       <c r="B14" s="0">
-        <v>196.0993</v>
+        <v>195.8506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4573</v>
+        <v>0.3655</v>
       </c>
       <c r="B15" s="0">
-        <v>196.856</v>
+        <v>194.6058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4912</v>
+        <v>0.3816</v>
       </c>
       <c r="B16" s="0">
-        <v>197.1842</v>
+        <v>196.473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5291</v>
+        <v>0.3991</v>
       </c>
       <c r="B17" s="0">
-        <v>195.5569</v>
+        <v>195.8506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5667</v>
+        <v>0.4342</v>
       </c>
       <c r="B18" s="0">
-        <v>195.6526</v>
+        <v>195.8506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6142</v>
+        <v>0.4693</v>
       </c>
       <c r="B19" s="0">
-        <v>196.1722</v>
+        <v>195.8506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6576</v>
+        <v>0.5044</v>
       </c>
       <c r="B20" s="0">
-        <v>196.6246</v>
+        <v>196.473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6937</v>
+        <v>0.5402</v>
       </c>
       <c r="B21" s="0">
-        <v>197.14</v>
+        <v>196.473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7284</v>
+        <v>0.5746</v>
       </c>
       <c r="B22" s="0">
-        <v>197.5149</v>
+        <v>196.473</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7652</v>
+        <v>0.6104</v>
       </c>
       <c r="B23" s="0">
-        <v>198.5881</v>
+        <v>196.473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8008</v>
+        <v>0.6455</v>
       </c>
       <c r="B24" s="0">
-        <v>199.6251</v>
+        <v>197.0954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8383</v>
+        <v>0.6806</v>
       </c>
       <c r="B25" s="0">
-        <v>202.098</v>
+        <v>197.7178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8744</v>
+        <v>0.7142</v>
       </c>
       <c r="B26" s="0">
-        <v>204.5636</v>
+        <v>198.3402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9104</v>
+        <v>0.75</v>
       </c>
       <c r="B27" s="0">
-        <v>208.0009</v>
+        <v>198.3402</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9471</v>
+        <v>0.7851</v>
       </c>
       <c r="B28" s="0">
-        <v>214.2475</v>
+        <v>199.5851</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9824</v>
+        <v>0.8202</v>
       </c>
       <c r="B29" s="0">
-        <v>217.9721</v>
+        <v>202.0747</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1.0009</v>
+        <v>0.856</v>
       </c>
       <c r="B30" s="0">
-        <v>219.9663</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>203.3195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.8918</v>
+      </c>
+      <c r="B31" s="0">
+        <v>205.8091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9254</v>
+      </c>
+      <c r="B32" s="0">
+        <v>209.5436</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9613</v>
+      </c>
+      <c r="B33" s="0">
+        <v>215.1452</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9956</v>
+      </c>
+      <c r="B34" s="0">
+        <v>219.5021</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8856,34 +8888,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0116</v>
+        <v>0.0152</v>
       </c>
       <c r="B3" s="0">
-        <v>213.5848</v>
+        <v>217.3192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0487</v>
+        <v>0.0509</v>
       </c>
       <c r="B4" s="0">
-        <v>225.4704</v>
+        <v>226.7152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.088</v>
+        <v>0.0909</v>
       </c>
       <c r="B5" s="0">
-        <v>228.9005</v>
+        <v>228.2781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1229</v>
+        <v>0.1258</v>
       </c>
       <c r="B6" s="0">
-        <v>231.3334</v>
+        <v>230.711</v>
       </c>
     </row>
     <row r="7">
@@ -8928,18 +8960,18 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4343</v>
+        <v>0.435</v>
       </c>
       <c r="B12" s="0">
-        <v>239.7947</v>
+        <v>239.1723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4691</v>
+        <v>0.4706</v>
       </c>
       <c r="B13" s="0">
-        <v>241.0254</v>
+        <v>240.403</v>
       </c>
     </row>
     <row r="14">
@@ -9048,18 +9080,18 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9605</v>
+        <v>0.9598</v>
       </c>
       <c r="B27" s="0">
-        <v>273.029</v>
+        <v>273.6515</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9868</v>
+        <v>0.9861</v>
       </c>
       <c r="B28" s="0">
-        <v>282.9876</v>
+        <v>284.2324</v>
       </c>
     </row>
     <row r="29">
@@ -9072,18 +9104,18 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3304</v>
+        <v>0.3311</v>
       </c>
       <c r="B30" s="0">
-        <v>238.1743</v>
+        <v>237.5519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4006</v>
+        <v>0.3999</v>
       </c>
       <c r="B31" s="0">
-        <v>239.4191</v>
+        <v>238.7967</v>
       </c>
     </row>
     <row r="32">
@@ -9096,15 +9128,15 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.3655</v>
+        <v>0.3662</v>
       </c>
       <c r="B33" s="0">
-        <v>239.4191</v>
+        <v>238.1743</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.348</v>
+        <v>0.3465</v>
       </c>
       <c r="B34" s="0">
         <v>239.4191</v>
@@ -9140,34 +9172,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0116</v>
+        <v>0.0101</v>
       </c>
       <c r="B3" s="0">
-        <v>317.3761</v>
+        <v>315.5089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0509</v>
+        <v>0.0517</v>
       </c>
       <c r="B4" s="0">
-        <v>334.5949</v>
+        <v>335.2173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.088</v>
+        <v>0.0895</v>
       </c>
       <c r="B5" s="0">
-        <v>340.8967</v>
+        <v>341.5191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1251</v>
+        <v>0.128</v>
       </c>
       <c r="B6" s="0">
-        <v>344.2151</v>
+        <v>344.8375</v>
       </c>
     </row>
     <row r="7">
@@ -9212,23 +9244,23 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4343</v>
+        <v>0.435</v>
       </c>
       <c r="B12" s="0">
-        <v>356.5771</v>
+        <v>357.1995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4691</v>
+        <v>0.4684</v>
       </c>
       <c r="B13" s="0">
-        <v>358.2864</v>
+        <v>358.9088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5051</v>
+        <v>0.5044</v>
       </c>
       <c r="B14" s="0">
         <v>357.6483</v>
@@ -9236,7 +9268,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.54</v>
+        <v>0.5407</v>
       </c>
       <c r="B15" s="0">
         <v>358.3548</v>
@@ -9244,10 +9276,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5759</v>
+        <v>0.5767</v>
       </c>
       <c r="B16" s="0">
-        <v>358.765</v>
+        <v>359.3875</v>
       </c>
     </row>
     <row r="17">
@@ -9255,7 +9287,7 @@
         <v>0.6108</v>
       </c>
       <c r="B17" s="0">
-        <v>359.5627</v>
+        <v>360.1851</v>
       </c>
     </row>
     <row r="18">
@@ -9263,7 +9295,7 @@
         <v>0.6456</v>
       </c>
       <c r="B18" s="0">
-        <v>360.406</v>
+        <v>361.0284</v>
       </c>
     </row>
     <row r="19">
@@ -9271,31 +9303,31 @@
         <v>0.6816</v>
       </c>
       <c r="B19" s="0">
-        <v>361.0898</v>
+        <v>361.7122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7153</v>
+        <v>0.7161</v>
       </c>
       <c r="B20" s="0">
-        <v>362.594</v>
+        <v>363.2164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7513</v>
+        <v>0.7506</v>
       </c>
       <c r="B21" s="0">
-        <v>364.2349</v>
+        <v>364.8574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.785</v>
+        <v>0.7858</v>
       </c>
       <c r="B22" s="0">
-        <v>366.1494</v>
+        <v>366.7718</v>
       </c>
     </row>
     <row r="23">
@@ -9303,23 +9335,23 @@
         <v>0.821</v>
       </c>
       <c r="B23" s="0">
-        <v>368.2006</v>
+        <v>368.823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.857</v>
+        <v>0.8563</v>
       </c>
       <c r="B24" s="0">
-        <v>372.0296</v>
+        <v>372.652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8907</v>
+        <v>0.89</v>
       </c>
       <c r="B25" s="0">
-        <v>378.0464</v>
+        <v>378.6689</v>
       </c>
     </row>
     <row r="26">
@@ -9327,23 +9359,23 @@
         <v>0.9245</v>
       </c>
       <c r="B26" s="0">
-        <v>387.482</v>
+        <v>388.7268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9964</v>
+        <v>0.9949</v>
       </c>
       <c r="B27" s="0">
-        <v>425.3611</v>
+        <v>425.9835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.402</v>
+        <v>0.4006</v>
       </c>
       <c r="B28" s="0">
-        <v>356.4315</v>
+        <v>355.8091</v>
       </c>
     </row>
     <row r="29">
@@ -9383,7 +9415,7 @@
         <v>0.9591</v>
       </c>
       <c r="B33" s="0">
-        <v>404.9793</v>
+        <v>403.7344</v>
       </c>
     </row>
     <row r="34"/>
@@ -9416,31 +9448,31 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0116</v>
+        <v>0.0101</v>
       </c>
       <c r="B3" s="0">
-        <v>331.5371</v>
+        <v>329.0475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0487</v>
+        <v>0.0479</v>
       </c>
       <c r="B4" s="0">
-        <v>356.6113</v>
+        <v>355.9889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0869</v>
+        <v>0.0876</v>
       </c>
       <c r="B5" s="0">
-        <v>364.3888</v>
+        <v>363.7664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.124</v>
+        <v>0.1291</v>
       </c>
       <c r="B6" s="0">
         <v>368.1633</v>
@@ -9448,7 +9480,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1577</v>
+        <v>0.1599</v>
       </c>
       <c r="B7" s="0">
         <v>370.4646</v>
@@ -9456,7 +9488,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1915</v>
+        <v>0.1936</v>
       </c>
       <c r="B8" s="0">
         <v>372.6981</v>
@@ -9488,15 +9520,15 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3354</v>
+        <v>0.3324</v>
       </c>
       <c r="B12" s="0">
-        <v>379.128</v>
+        <v>378.5056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3605</v>
+        <v>0.3649</v>
       </c>
       <c r="B13" s="0">
         <v>379.537</v>
@@ -9504,7 +9536,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3866</v>
+        <v>0.383</v>
       </c>
       <c r="B14" s="0">
         <v>380.2071</v>
@@ -9512,7 +9544,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4039</v>
+        <v>0.401</v>
       </c>
       <c r="B15" s="0">
         <v>379.8242</v>
@@ -9632,42 +9664,42 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9225</v>
+        <v>0.9245</v>
       </c>
       <c r="B30" s="0">
-        <v>413.8743</v>
+        <v>410.4084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9245</v>
+        <v>0.9608</v>
       </c>
       <c r="B31" s="0">
-        <v>408.5411</v>
+        <v>423.2817</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9572</v>
+        <v>0.9875</v>
       </c>
       <c r="B32" s="0">
-        <v>425.7713</v>
+        <v>433.4831</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9809</v>
+        <v>0.9965</v>
       </c>
       <c r="B33" s="0">
-        <v>435.9727</v>
+        <v>440.4646</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9987</v>
+        <v>0.348</v>
       </c>
       <c r="B34" s="0">
-        <v>441.0871</v>
+        <v>378.8382</v>
       </c>
     </row>
     <row r="35"/>
@@ -9679,7 +9711,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9700,261 +9732,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0127</v>
+        <v>0.0509</v>
       </c>
       <c r="B3" s="0">
-        <v>343.0664</v>
+        <v>373.1235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0509</v>
+        <v>0.088</v>
       </c>
       <c r="B4" s="0">
-        <v>373.1235</v>
+        <v>381.7386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.088</v>
+        <v>0.1269</v>
       </c>
       <c r="B5" s="0">
-        <v>381.7386</v>
+        <v>386.6988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.124</v>
+        <v>0.1636</v>
       </c>
       <c r="B6" s="0">
-        <v>386.6988</v>
+        <v>389.7446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1577</v>
+        <v>0.2286</v>
       </c>
       <c r="B7" s="0">
-        <v>389.7446</v>
+        <v>393.8237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1857</v>
+        <v>0.2612</v>
       </c>
       <c r="B8" s="0">
-        <v>391.5845</v>
+        <v>395.5653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2031</v>
+        <v>0.296</v>
       </c>
       <c r="B9" s="0">
-        <v>391.6938</v>
+        <v>397.0544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2286</v>
+        <v>0.0088</v>
       </c>
       <c r="B10" s="0">
-        <v>393.8237</v>
+        <v>340.249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2612</v>
+        <v>0.0146</v>
       </c>
       <c r="B11" s="0">
-        <v>395.5653</v>
+        <v>346.473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.296</v>
+        <v>0.1937</v>
       </c>
       <c r="B12" s="0">
-        <v>397.0544</v>
+        <v>391.9087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3331</v>
+        <v>0.3311</v>
       </c>
       <c r="B13" s="0">
-        <v>398.4467</v>
+        <v>398.1328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3578</v>
+        <v>0.348</v>
       </c>
       <c r="B14" s="0">
-        <v>399.665</v>
+        <v>399.3776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3826</v>
+        <v>0.3648</v>
       </c>
       <c r="B15" s="0">
-        <v>400.4482</v>
+        <v>399.3776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4017</v>
+        <v>0.383</v>
       </c>
       <c r="B16" s="0">
-        <v>400.8833</v>
+        <v>400.6224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4354</v>
+        <v>0.3999</v>
       </c>
       <c r="B17" s="0">
-        <v>401.3619</v>
+        <v>400.6224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.468</v>
+        <v>0.4349</v>
       </c>
       <c r="B18" s="0">
-        <v>404.0741</v>
+        <v>402.4896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5051</v>
+        <v>0.4708</v>
       </c>
       <c r="B19" s="0">
-        <v>403.2764</v>
+        <v>403.7344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5411</v>
+        <v>0.5058</v>
       </c>
       <c r="B20" s="0">
-        <v>404.2336</v>
+        <v>403.112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5748</v>
+        <v>0.5402</v>
       </c>
       <c r="B21" s="0">
-        <v>405.1908</v>
+        <v>404.9793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6108</v>
+        <v>0.5753</v>
       </c>
       <c r="B22" s="0">
-        <v>406.2677</v>
+        <v>405.6017</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6468</v>
+        <v>0.6104</v>
       </c>
       <c r="B23" s="0">
-        <v>407.5839</v>
+        <v>406.8465</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6805</v>
+        <v>0.6447</v>
       </c>
       <c r="B24" s="0">
-        <v>408.5411</v>
+        <v>408.0913</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7153</v>
+        <v>0.6806</v>
       </c>
       <c r="B25" s="0">
-        <v>410.1821</v>
+        <v>408.7137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7513</v>
+        <v>0.7142</v>
       </c>
       <c r="B26" s="0">
-        <v>412.2333</v>
+        <v>410.5809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7862</v>
+        <v>0.7507</v>
       </c>
       <c r="B27" s="0">
-        <v>414.2845</v>
+        <v>413.0705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8221</v>
+        <v>0.7865</v>
       </c>
       <c r="B28" s="0">
-        <v>417.1562</v>
+        <v>414.9378</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8559</v>
+        <v>0.8209</v>
       </c>
       <c r="B29" s="0">
-        <v>421.4638</v>
+        <v>418.0498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8896</v>
+        <v>0.8545</v>
       </c>
       <c r="B30" s="0">
-        <v>427.0875</v>
+        <v>422.4066</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9254</v>
+        <v>0.8904</v>
       </c>
       <c r="B31" s="0">
-        <v>437.3444</v>
+        <v>428.0083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.962</v>
+        <v>0.9254</v>
       </c>
       <c r="B32" s="0">
-        <v>449.7925</v>
+        <v>437.3444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9883</v>
+        <v>0.9613</v>
       </c>
       <c r="B33" s="0">
-        <v>458.5062</v>
+        <v>448.5477</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9956</v>
+        <v>0.9868</v>
       </c>
       <c r="B34" s="0">
-        <v>460.9959</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>456.639</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9963</v>
+      </c>
+      <c r="B35" s="0">
+        <v>460.3734</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9963,7 +10003,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9984,253 +10024,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0105</v>
+        <v>0.9942</v>
       </c>
       <c r="B3" s="0">
-        <v>388.5589</v>
+        <v>553.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0476</v>
+        <v>0.9569</v>
       </c>
       <c r="B4" s="0">
-        <v>408.9514</v>
+        <v>510.7884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0835</v>
+        <v>0.9232</v>
       </c>
       <c r="B5" s="0">
-        <v>419.2075</v>
+        <v>488.3817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1218</v>
+        <v>0.8889</v>
       </c>
       <c r="B6" s="0">
-        <v>424.9011</v>
+        <v>475.3112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1497</v>
+        <v>0.8553</v>
       </c>
       <c r="B7" s="0">
-        <v>428.3695</v>
+        <v>467.2199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1673</v>
+        <v>0.8202</v>
       </c>
       <c r="B8" s="0">
-        <v>429.361</v>
+        <v>461.6183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1937</v>
+        <v>0.7851</v>
       </c>
       <c r="B9" s="0">
-        <v>430.9829</v>
+        <v>458.5062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2241</v>
+        <v>0.7507</v>
       </c>
       <c r="B10" s="0">
-        <v>433.6685</v>
+        <v>456.0166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.7156</v>
       </c>
       <c r="B11" s="0">
-        <v>435.583</v>
+        <v>452.2822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2938</v>
+        <v>0.6813</v>
       </c>
       <c r="B12" s="0">
-        <v>437.4177</v>
+        <v>451.0373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3331</v>
+        <v>0.6462</v>
       </c>
       <c r="B13" s="0">
-        <v>439.0856</v>
+        <v>449.7925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3583</v>
+        <v>0.6096</v>
       </c>
       <c r="B14" s="0">
-        <v>440.0341</v>
+        <v>447.9253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3868</v>
+        <v>0.576</v>
       </c>
       <c r="B15" s="0">
-        <v>441.1828</v>
+        <v>446.0581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4028</v>
+        <v>0.5402</v>
       </c>
       <c r="B16" s="0">
-        <v>440.768</v>
+        <v>445.4357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.432</v>
+        <v>0.5044</v>
       </c>
       <c r="B17" s="0">
-        <v>443.0015</v>
+        <v>444.8133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4658</v>
+        <v>0.4693</v>
       </c>
       <c r="B18" s="0">
-        <v>445.5997</v>
+        <v>443.5685</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5029</v>
+        <v>0.4349</v>
       </c>
       <c r="B19" s="0">
-        <v>444.4374</v>
+        <v>443.5685</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5377</v>
+        <v>0.4006</v>
       </c>
       <c r="B20" s="0">
-        <v>445.5997</v>
+        <v>441.0788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5737</v>
+        <v>0.383</v>
       </c>
       <c r="B21" s="0">
-        <v>446.6937</v>
+        <v>441.0788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6074</v>
+        <v>0.364</v>
       </c>
       <c r="B22" s="0">
-        <v>448.1979</v>
+        <v>439.834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6434</v>
+        <v>0.3465</v>
       </c>
       <c r="B23" s="0">
-        <v>449.5654</v>
+        <v>439.834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6794</v>
+        <v>0.3304</v>
       </c>
       <c r="B24" s="0">
-        <v>450.2491</v>
+        <v>439.834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7142</v>
+        <v>0.2961</v>
       </c>
       <c r="B25" s="0">
-        <v>452.7334</v>
+        <v>437.9668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7491</v>
+        <v>0.2617</v>
       </c>
       <c r="B26" s="0">
-        <v>455.172</v>
+        <v>436.0996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7828</v>
+        <v>0.2266</v>
       </c>
       <c r="B27" s="0">
-        <v>457.4968</v>
+        <v>433.61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8188</v>
+        <v>0.1988</v>
       </c>
       <c r="B28" s="0">
-        <v>461.3257</v>
+        <v>432.3651</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8525</v>
+        <v>0.1974</v>
       </c>
       <c r="B29" s="0">
-        <v>466.7956</v>
+        <v>431.1203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8874</v>
+        <v>0.1908</v>
       </c>
       <c r="B30" s="0">
-        <v>475.0688</v>
+        <v>431.7427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9211</v>
+        <v>0.1586</v>
       </c>
       <c r="B31" s="0">
-        <v>488.3105</v>
+        <v>429.2531</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9559</v>
+        <v>0.1316</v>
       </c>
       <c r="B32" s="0">
-        <v>510.418</v>
+        <v>424.8963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9942</v>
+        <v>0.1301</v>
       </c>
       <c r="B33" s="0">
-        <v>550.7859</v>
-      </c>
-    </row>
-    <row r="34"/>
+        <v>425.5187</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1192</v>
+      </c>
+      <c r="B34" s="0">
+        <v>425.5187</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0863</v>
+      </c>
+      <c r="B35" s="0">
+        <v>419.917</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0497</v>
+      </c>
+      <c r="B36" s="0">
+        <v>408.7137</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0146</v>
+      </c>
+      <c r="B37" s="0">
+        <v>391.2863</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B38" s="0">
+        <v>387.5519</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10238,338 +10318,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0021</v>
-      </c>
-      <c r="B3" s="0">
-        <v>403.8613</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0247</v>
-      </c>
-      <c r="B4" s="0">
-        <v>414.8315</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0506</v>
-      </c>
-      <c r="B5" s="0">
-        <v>429.4806</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0794</v>
-      </c>
-      <c r="B6" s="0">
-        <v>440.2894</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1009</v>
-      </c>
-      <c r="B7" s="0">
-        <v>444.5057</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1262</v>
-      </c>
-      <c r="B8" s="0">
-        <v>449.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1527</v>
-      </c>
-      <c r="B9" s="0">
-        <v>452.4542</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1749</v>
-      </c>
-      <c r="B10" s="0">
-        <v>454.249</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1982</v>
-      </c>
-      <c r="B11" s="0">
-        <v>456.2964</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2297</v>
-      </c>
-      <c r="B12" s="0">
-        <v>458.53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2629</v>
-      </c>
-      <c r="B13" s="0">
-        <v>461.0826</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2983</v>
-      </c>
-      <c r="B14" s="0">
-        <v>462.5051</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.334</v>
-      </c>
-      <c r="B15" s="0">
-        <v>463.9649</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3578</v>
-      </c>
-      <c r="B16" s="0">
-        <v>465.1919</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3832</v>
-      </c>
-      <c r="B17" s="0">
-        <v>466.2623</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4028</v>
-      </c>
-      <c r="B18" s="0">
-        <v>466.9323</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4365</v>
-      </c>
-      <c r="B19" s="0">
-        <v>468.2998</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4723</v>
-      </c>
-      <c r="B20" s="0">
-        <v>469.3254</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4942</v>
-      </c>
-      <c r="B21" s="0">
-        <v>471.2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5152</v>
-      </c>
-      <c r="B22" s="0">
-        <v>470.3784</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5465</v>
-      </c>
-      <c r="B23" s="0">
-        <v>472.1971</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5722</v>
-      </c>
-      <c r="B24" s="0">
-        <v>472.8885</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5936</v>
-      </c>
-      <c r="B25" s="0">
-        <v>472.915</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6209</v>
-      </c>
-      <c r="B26" s="0">
-        <v>474.1551</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6524</v>
-      </c>
-      <c r="B27" s="0">
-        <v>474.6772</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6784</v>
-      </c>
-      <c r="B28" s="0">
-        <v>475.9729</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.7131</v>
-      </c>
-      <c r="B29" s="0">
-        <v>477.5815</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7522</v>
-      </c>
-      <c r="B30" s="0">
-        <v>479.3764</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7801</v>
-      </c>
-      <c r="B31" s="0">
-        <v>480.9079</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7957</v>
-      </c>
-      <c r="B32" s="0">
-        <v>481.0515</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8233</v>
-      </c>
-      <c r="B33" s="0">
-        <v>484.436</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8525</v>
-      </c>
-      <c r="B34" s="0">
-        <v>487.8718</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8779</v>
-      </c>
-      <c r="B35" s="0">
-        <v>493.4614</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8975</v>
-      </c>
-      <c r="B36" s="0">
-        <v>497.1809</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9285</v>
-      </c>
-      <c r="B37" s="0">
-        <v>509.4335</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9582</v>
-      </c>
-      <c r="B38" s="0">
-        <v>528.5498</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.977</v>
-      </c>
-      <c r="B39" s="0">
-        <v>544.8163</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9942</v>
-      </c>
-      <c r="B40" s="0">
-        <v>557.4865</v>
-      </c>
-    </row>
-    <row r="41"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -10579,7 +10327,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -10592,269 +10340,577 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0111</v>
+        <v>0.0117</v>
       </c>
       <c r="B3" s="0">
-        <v>516.1921</v>
+        <v>408.7137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0318</v>
+        <v>0.0497</v>
       </c>
       <c r="B4" s="0">
-        <v>552.8098</v>
+        <v>431.1203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0498</v>
+        <v>0.0863</v>
       </c>
       <c r="B5" s="0">
-        <v>579.7187</v>
+        <v>443.5685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0799</v>
+        <v>0.1199</v>
       </c>
       <c r="B6" s="0">
-        <v>613.7718</v>
+        <v>448.5477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1046</v>
+        <v>0.1301</v>
       </c>
       <c r="B7" s="0">
-        <v>630.8584</v>
+        <v>451.0373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.13</v>
+        <v>0.1572</v>
       </c>
       <c r="B8" s="0">
-        <v>642.5313</v>
+        <v>453.527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.1908</v>
       </c>
       <c r="B9" s="0">
-        <v>653.0706</v>
+        <v>456.0166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1948</v>
+        <v>0.1988</v>
       </c>
       <c r="B10" s="0">
-        <v>660.1338</v>
+        <v>456.0166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2297</v>
+        <v>0.2266</v>
       </c>
       <c r="B11" s="0">
-        <v>664.785</v>
+        <v>458.5062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2589</v>
+        <v>0.2624</v>
       </c>
       <c r="B12" s="0">
-        <v>667.7303</v>
+        <v>460.9959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2971</v>
+        <v>0.2961</v>
       </c>
       <c r="B13" s="0">
-        <v>671.0356</v>
+        <v>462.8631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3295</v>
+        <v>0.3304</v>
       </c>
       <c r="B14" s="0">
-        <v>673.4074</v>
+        <v>464.7303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3591</v>
+        <v>0.3465</v>
       </c>
       <c r="B15" s="0">
-        <v>675.1739</v>
+        <v>464.7303</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3891</v>
+        <v>0.3655</v>
       </c>
       <c r="B16" s="0">
-        <v>676.8056</v>
+        <v>465.9751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4234</v>
+        <v>0.3845</v>
       </c>
       <c r="B17" s="0">
-        <v>678.7542</v>
+        <v>466.5975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4424</v>
+        <v>0.3999</v>
       </c>
       <c r="B18" s="0">
-        <v>679.0551</v>
+        <v>467.2199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.477</v>
+        <v>0.4342</v>
       </c>
       <c r="B19" s="0">
-        <v>681.2788</v>
+        <v>469.0871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5033</v>
+        <v>0.47</v>
       </c>
       <c r="B20" s="0">
-        <v>682.1729</v>
+        <v>470.332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5451</v>
+        <v>0.5051</v>
       </c>
       <c r="B21" s="0">
-        <v>682.9159</v>
+        <v>470.332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5825</v>
+        <v>0.5395</v>
       </c>
       <c r="B22" s="0">
-        <v>683.615</v>
+        <v>472.1992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6083</v>
+        <v>0.5753</v>
       </c>
       <c r="B23" s="0">
-        <v>686.5773</v>
+        <v>473.444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6522</v>
+        <v>0.6104</v>
       </c>
       <c r="B24" s="0">
-        <v>685.6513</v>
+        <v>474.6888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6787</v>
+        <v>0.6455</v>
       </c>
       <c r="B25" s="0">
-        <v>685.4549</v>
+        <v>475.3112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7153</v>
+        <v>0.6798</v>
       </c>
       <c r="B26" s="0">
-        <v>687.7796</v>
+        <v>475.9336</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7502</v>
+        <v>0.7149</v>
       </c>
       <c r="B27" s="0">
-        <v>688.3722</v>
+        <v>477.8008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7912</v>
+        <v>0.75</v>
       </c>
       <c r="B28" s="0">
-        <v>690.0024</v>
+        <v>479.668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8215</v>
+        <v>0.7851</v>
       </c>
       <c r="B29" s="0">
-        <v>691.8182</v>
+        <v>481.5353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8496</v>
+        <v>0.8202</v>
       </c>
       <c r="B30" s="0">
-        <v>693.605</v>
+        <v>484.6473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8817</v>
+        <v>0.8545</v>
       </c>
       <c r="B31" s="0">
-        <v>695.3387</v>
+        <v>489.0041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9114</v>
+        <v>0.8889</v>
       </c>
       <c r="B32" s="0">
-        <v>696.6682</v>
+        <v>495.8506</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9412</v>
+        <v>0.9218</v>
       </c>
       <c r="B33" s="0">
-        <v>699.4528</v>
+        <v>508.9212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9687</v>
+        <v>0.9576</v>
       </c>
       <c r="B34" s="0">
-        <v>705.379</v>
+        <v>530.083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9897</v>
+        <v>0.9898</v>
       </c>
       <c r="B35" s="0">
-        <v>714.2813</v>
+        <v>558.0913</v>
       </c>
     </row>
     <row r="36"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0095</v>
+      </c>
+      <c r="B3" s="0">
+        <v>508.9212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0139</v>
+      </c>
+      <c r="B4" s="0">
+        <v>526.3485</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0482</v>
+      </c>
+      <c r="B5" s="0">
+        <v>578.0083</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0804</v>
+      </c>
+      <c r="B6" s="0">
+        <v>615.3527</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0885</v>
+      </c>
+      <c r="B7" s="0">
+        <v>620.9544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1213</v>
+      </c>
+      <c r="B8" s="0">
+        <v>639.6266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.155</v>
+      </c>
+      <c r="B9" s="0">
+        <v>652.6971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1645</v>
+      </c>
+      <c r="B10" s="0">
+        <v>653.9419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1893</v>
+      </c>
+      <c r="B11" s="0">
+        <v>659.5436</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2003</v>
+      </c>
+      <c r="B12" s="0">
+        <v>660.7884</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2251</v>
+      </c>
+      <c r="B13" s="0">
+        <v>664.5228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2383</v>
+      </c>
+      <c r="B14" s="0">
+        <v>665.7676</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2617</v>
+      </c>
+      <c r="B15" s="0">
+        <v>668.2573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2961</v>
+      </c>
+      <c r="B16" s="0">
+        <v>671.3693</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3311</v>
+      </c>
+      <c r="B17" s="0">
+        <v>673.8589</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3655</v>
+      </c>
+      <c r="B18" s="0">
+        <v>675.1037</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3823</v>
+      </c>
+      <c r="B19" s="0">
+        <v>676.971</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3999</v>
+      </c>
+      <c r="B20" s="0">
+        <v>677.5934</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4342</v>
+      </c>
+      <c r="B21" s="0">
+        <v>678.8382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4686</v>
+      </c>
+      <c r="B22" s="0">
+        <v>679.4606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5044</v>
+      </c>
+      <c r="B23" s="0">
+        <v>681.3278</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5402</v>
+      </c>
+      <c r="B24" s="0">
+        <v>683.195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5753</v>
+      </c>
+      <c r="B25" s="0">
+        <v>683.195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.6089</v>
+      </c>
+      <c r="B26" s="0">
+        <v>685.0622</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.6447</v>
+      </c>
+      <c r="B27" s="0">
+        <v>685.6846</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6806</v>
+      </c>
+      <c r="B28" s="0">
+        <v>686.9295</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.7149</v>
+      </c>
+      <c r="B29" s="0">
+        <v>687.5519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B30" s="0">
+        <v>689.4191</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7858</v>
+      </c>
+      <c r="B31" s="0">
+        <v>690.6639</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.8202</v>
+      </c>
+      <c r="B32" s="0">
+        <v>690.6639</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.8553</v>
+      </c>
+      <c r="B33" s="0">
+        <v>691.2863</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8911</v>
+      </c>
+      <c r="B34" s="0">
+        <v>693.7759</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9247</v>
+      </c>
+      <c r="B35" s="0">
+        <v>695.6432</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.9598</v>
+      </c>
+      <c r="B36" s="0">
+        <v>700.6224</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9898</v>
+      </c>
+      <c r="B37" s="0">
+        <v>714.3154</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10863,7 +10919,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10884,381 +10940,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0119</v>
+        <v>0.0102</v>
       </c>
       <c r="B3" s="0">
-        <v>583.284</v>
+        <v>559.3361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0068</v>
+        <v>0.0146</v>
       </c>
       <c r="B4" s="0">
-        <v>559.1457</v>
+        <v>582.9876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0262</v>
+        <v>0.0497</v>
       </c>
       <c r="B5" s="0">
-        <v>611.9531</v>
+        <v>671.3693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0352</v>
+        <v>0.0819</v>
       </c>
       <c r="B6" s="0">
-        <v>633.4908</v>
+        <v>740.4564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0431</v>
+        <v>0.0863</v>
       </c>
       <c r="B7" s="0">
-        <v>658.5042</v>
+        <v>748.5477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.052</v>
+        <v>0.117</v>
       </c>
       <c r="B8" s="0">
-        <v>673.5031</v>
+        <v>797.7178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0633</v>
+        <v>0.1213</v>
       </c>
       <c r="B9" s="0">
-        <v>700.1142</v>
+        <v>804.5643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0723</v>
+        <v>0.1586</v>
       </c>
       <c r="B10" s="0">
-        <v>717.7273</v>
+        <v>848.7552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0824</v>
+        <v>0.1908</v>
       </c>
       <c r="B11" s="0">
-        <v>742.047</v>
+        <v>877.3859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.097</v>
+        <v>0.1981</v>
       </c>
       <c r="B12" s="0">
-        <v>763.9297</v>
+        <v>881.1203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1083</v>
+        <v>0.2273</v>
       </c>
       <c r="B13" s="0">
-        <v>784.7974</v>
+        <v>896.6805</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.124</v>
+        <v>0.2412</v>
       </c>
       <c r="B14" s="0">
-        <v>805.4973</v>
+        <v>902.9046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.142</v>
+        <v>0.2617</v>
       </c>
       <c r="B15" s="0">
-        <v>828.0825</v>
+        <v>910.3734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1622</v>
+        <v>0.2829</v>
       </c>
       <c r="B16" s="0">
-        <v>851.4788</v>
+        <v>915.9751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1858</v>
+        <v>0.2953</v>
       </c>
       <c r="B17" s="0">
-        <v>871.9949</v>
+        <v>920.332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2092</v>
+        <v>0.3187</v>
       </c>
       <c r="B18" s="0">
-        <v>886.3421</v>
+        <v>922.8216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2342</v>
+        <v>0.3304</v>
       </c>
       <c r="B19" s="0">
-        <v>900.3847</v>
+        <v>925.9336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2589</v>
+        <v>0.3458</v>
       </c>
       <c r="B20" s="0">
-        <v>909.2608</v>
+        <v>926.556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2845</v>
+        <v>0.3655</v>
       </c>
       <c r="B21" s="0">
-        <v>916.6243</v>
+        <v>929.668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3081</v>
+        <v>0.402</v>
       </c>
       <c r="B22" s="0">
-        <v>921.1711</v>
+        <v>933.4025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3331</v>
+        <v>0.4342</v>
       </c>
       <c r="B23" s="0">
-        <v>925.5425</v>
+        <v>935.8921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3581</v>
+        <v>0.4715</v>
       </c>
       <c r="B24" s="0">
-        <v>928.6056</v>
+        <v>939.0041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3831</v>
+        <v>0.5058</v>
       </c>
       <c r="B25" s="0">
-        <v>931.4029</v>
+        <v>941.4938</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4062</v>
+        <v>0.5402</v>
       </c>
       <c r="B26" s="0">
-        <v>933.663</v>
+        <v>943.361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4343</v>
+        <v>0.576</v>
       </c>
       <c r="B27" s="0">
-        <v>935.9763</v>
+        <v>945.8506</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4597</v>
+        <v>0.6096</v>
       </c>
       <c r="B28" s="0">
-        <v>938.1301</v>
+        <v>947.7178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.484</v>
+        <v>0.6447</v>
       </c>
       <c r="B29" s="0">
-        <v>940.2307</v>
+        <v>948.9627</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5103</v>
+        <v>0.6806</v>
       </c>
       <c r="B30" s="0">
-        <v>943.3151</v>
+        <v>950.2075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5362</v>
+        <v>0.7156</v>
       </c>
       <c r="B31" s="0">
-        <v>944.9105</v>
+        <v>952.0747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5652</v>
+        <v>0.7507</v>
       </c>
       <c r="B32" s="0">
-        <v>946.5059</v>
+        <v>952.6971</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5862</v>
+        <v>0.7858</v>
       </c>
       <c r="B33" s="0">
-        <v>947.8734</v>
+        <v>953.9419</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6129</v>
+        <v>0.8209</v>
       </c>
       <c r="B34" s="0">
-        <v>948.9876</v>
+        <v>955.8091</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6391</v>
+        <v>0.8575</v>
       </c>
       <c r="B35" s="0">
-        <v>949.335</v>
+        <v>957.6763</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6652</v>
+        <v>0.8904</v>
       </c>
       <c r="B36" s="0">
-        <v>952.386</v>
+        <v>957.6763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6881</v>
+        <v>0.9262</v>
       </c>
       <c r="B37" s="0">
-        <v>952.6322</v>
+        <v>959.5436</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7126</v>
+        <v>0.9605</v>
       </c>
       <c r="B38" s="0">
-        <v>953.632</v>
+        <v>960.7884</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7399</v>
+        <v>0.9927</v>
       </c>
       <c r="B39" s="0">
-        <v>953.3022</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7642</v>
-      </c>
-      <c r="B40" s="0">
-        <v>953.7079</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.79</v>
-      </c>
-      <c r="B41" s="0">
-        <v>956.2909</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8251</v>
-      </c>
-      <c r="B42" s="0">
-        <v>956.6526</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8505</v>
-      </c>
-      <c r="B43" s="0">
-        <v>956.9397</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8793</v>
-      </c>
-      <c r="B44" s="0">
-        <v>959.1733</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9047</v>
-      </c>
-      <c r="B45" s="0">
-        <v>960.1624</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9312</v>
-      </c>
-      <c r="B46" s="0">
-        <v>960.6323</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9559</v>
-      </c>
-      <c r="B47" s="0">
-        <v>962.2422</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9802</v>
-      </c>
-      <c r="B48" s="0">
-        <v>965.1719</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9964</v>
-      </c>
-      <c r="B49" s="0">
-        <v>967.565</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>967.0124</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 138 Superior CO2 uptake of/Data138_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 SK-0.3-700  0-1-100-10" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 SK-0.5-600  0-1-100-10" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 SK-0.5-700  0-1-100-10" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 SK-0.5-800  0-1-100-10" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 SK-0.5-900  0-1-100-10" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 SK-1-700  0-1-100-1000" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1 SK-2-700  0-1-100-1000" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1 SK-3-700  0-1-100-1000" sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 1 SK-4-700  0-1-100-1000" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1 SK-0.3-700  0&amp;1&amp;100&amp;10" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 SK-0.5-600  0&amp;1&amp;100&amp;10" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 SK-0.5-700  0&amp;1&amp;100&amp;10" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 SK-0.5-800  0&amp;1&amp;100&amp;10" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 SK-0.5-900  0&amp;1&amp;100&amp;10" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 SK-1-700  0&amp;1&amp;100&amp;1000" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 SK-2-700  0&amp;1&amp;100&amp;1000" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1 SK-3-700  0&amp;1&amp;100&amp;1000" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1 SK-4-700  0&amp;1&amp;100&amp;1000" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.3-700  0-1-100-10'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-0.3-700  0&amp;1&amp;100&amp;10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.3-700  0-1-100-10'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-0.3-700  0&amp;1&amp;100&amp;10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -502,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-600  0-1-100-10'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-0.5-600  0&amp;1&amp;100&amp;10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-600  0-1-100-10'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-0.5-600  0&amp;1&amp;100&amp;10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -816,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-700  0-1-100-10'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-0.5-700  0&amp;1&amp;100&amp;10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-700  0-1-100-10'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-0.5-700  0&amp;1&amp;100&amp;10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1130,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-800  0-1-100-10'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-0.5-800  0&amp;1&amp;100&amp;10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-800  0-1-100-10'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-0.5-800  0&amp;1&amp;100&amp;10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1444,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-900  0-1-100-10'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-0.5-900  0&amp;1&amp;100&amp;10'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-0.5-900  0-1-100-10'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-0.5-900  0&amp;1&amp;100&amp;10'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1758,12 +1758,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-1-700  0-1-100-1000'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-1-700  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-1-700  0-1-100-1000'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-1-700  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2072,12 +2072,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-2-700  0-1-100-1000'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-2-700  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-2-700  0-1-100-1000'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-2-700  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2386,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-3-700  0-1-100-1000'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-3-700  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-3-700  0-1-100-1000'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-3-700  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2700,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-4-700  0-1-100-1000'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 SK-4-700  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 SK-4-700  0-1-100-1000'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 SK-4-700  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
